--- a/src/assets/testex.xlsx
+++ b/src/assets/testex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\withscompany\재무\경리업무폴더\발주, 정산\1.발주작업중\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\test2\testapp\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9271D4AD-3A18-49A6-9382-9B2F2A29DE3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB83F85-0284-45BD-B01D-6BF131378786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28035" yWindow="30" windowWidth="40395" windowHeight="21270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="출고요청서" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
   <si>
     <t>수취인명</t>
   </si>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>20230208-0000176</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1204,7 +1216,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,19 +1331,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1752,7 +1758,7 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="K8" sqref="K8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1818,7 +1824,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="N1" s="22" t="s">
         <v>11</v>
@@ -1830,7 +1836,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>9</v>
@@ -1839,7 +1845,7 @@
         <v>12</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1858,18 +1864,18 @@
       <c r="E2" s="37">
         <v>47143</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="39" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="23" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="37">
@@ -1904,18 +1910,18 @@
       <c r="E3" s="37">
         <v>44725</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="29" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="39"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="37">
         <v>1</v>
       </c>
@@ -1948,18 +1954,18 @@
       <c r="E4" s="37">
         <v>55146</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="29" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="39" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="23" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="37">
@@ -1994,18 +2000,18 @@
       <c r="E5" s="37">
         <v>41122</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="29" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="39" t="s">
+      <c r="J5" s="38"/>
+      <c r="K5" s="23" t="s">
         <v>94</v>
       </c>
       <c r="L5" s="37">
@@ -2040,18 +2046,18 @@
       <c r="E6" s="37">
         <v>42600</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="29" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="39"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="37">
         <v>1</v>
       </c>
@@ -2084,18 +2090,18 @@
       <c r="E7" s="37">
         <v>7527</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="29" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="39"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="37">
         <v>1</v>
       </c>
@@ -2128,18 +2134,18 @@
       <c r="E8" s="37">
         <v>58748</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="29" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="39"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="39"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="37">
         <v>1</v>
       </c>
@@ -2172,18 +2178,18 @@
       <c r="E9" s="37">
         <v>42141</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="29" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="39"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="39"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="37">
         <v>1</v>
       </c>
@@ -2216,18 +2222,18 @@
       <c r="E10" s="37">
         <v>42688</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="29" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="39"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="37">
         <v>1</v>
       </c>
@@ -2260,18 +2266,18 @@
       <c r="E11" s="37">
         <v>41952</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="29" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="39"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="37">
         <v>1</v>
       </c>
@@ -2304,18 +2310,18 @@
       <c r="E12" s="37">
         <v>51468</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="29" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="39"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="37">
         <v>1</v>
       </c>
@@ -2348,18 +2354,18 @@
       <c r="E13" s="37">
         <v>42508</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="29" t="s">
         <v>46</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="39" t="s">
+      <c r="J13" s="38"/>
+      <c r="K13" s="23" t="s">
         <v>95</v>
       </c>
       <c r="L13" s="37">
@@ -2394,18 +2400,18 @@
       <c r="E14" s="37">
         <v>38524</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="29" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="39"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="37">
         <v>1</v>
       </c>
@@ -2438,18 +2444,18 @@
       <c r="E15" s="37">
         <v>56435</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="29" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="39"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="39"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="37">
         <v>1</v>
       </c>
@@ -2482,18 +2488,18 @@
       <c r="E16" s="37">
         <v>38437</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="29" t="s">
         <v>51</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="39"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="39" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="23" t="s">
         <v>96</v>
       </c>
       <c r="L16" s="37">
@@ -2528,18 +2534,18 @@
       <c r="E17" s="37">
         <v>10381</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="29" t="s">
         <v>53</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38" t="s">
+      <c r="H17" s="23"/>
+      <c r="I17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="39" t="s">
+      <c r="J17" s="38"/>
+      <c r="K17" s="23" t="s">
         <v>96</v>
       </c>
       <c r="L17" s="37">
@@ -2574,18 +2580,18 @@
       <c r="E18" s="37">
         <v>11673</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="29" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38" t="s">
+      <c r="H18" s="23"/>
+      <c r="I18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="39" t="s">
+      <c r="J18" s="38"/>
+      <c r="K18" s="23" t="s">
         <v>97</v>
       </c>
       <c r="L18" s="37">
@@ -2620,18 +2626,18 @@
       <c r="E19" s="37">
         <v>18412</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="29" t="s">
         <v>57</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="38" t="s">
+      <c r="H19" s="23"/>
+      <c r="I19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="39" t="s">
+      <c r="J19" s="38"/>
+      <c r="K19" s="23" t="s">
         <v>98</v>
       </c>
       <c r="L19" s="37">
@@ -2666,18 +2672,18 @@
       <c r="E20" s="37">
         <v>8851</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="29" t="s">
         <v>101</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="39"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="37">
         <v>1</v>
       </c>
@@ -2702,12 +2708,12 @@
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="37"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="39"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="23"/>
       <c r="L21" s="37"/>
       <c r="M21" s="23"/>
       <c r="N21" s="25"/>
@@ -2726,12 +2732,12 @@
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="37"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="39"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="37"/>
       <c r="M22" s="23"/>
       <c r="N22" s="25"/>
@@ -2750,12 +2756,12 @@
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="37"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="39"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="37"/>
       <c r="M23" s="23"/>
       <c r="N23" s="25"/>
@@ -2774,12 +2780,12 @@
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="37"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="39"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="23"/>
       <c r="L24" s="37"/>
       <c r="M24" s="23"/>
       <c r="N24" s="25"/>
@@ -2798,12 +2804,12 @@
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="37"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="39"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="37"/>
       <c r="M25" s="23"/>
       <c r="N25" s="25"/>
@@ -2822,12 +2828,12 @@
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
+      <c r="F26" s="29"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="39"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="37"/>
       <c r="M26" s="23"/>
       <c r="N26" s="25"/>
@@ -2846,12 +2852,12 @@
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="39"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="37"/>
       <c r="M27" s="23"/>
       <c r="N27" s="25"/>
